--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1472169.349155661</v>
+        <v>1515575.084948352</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453904</v>
+        <v>5435918.088148478</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.11917867</v>
+        <v>2632905.856953524</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7643806.346682497</v>
+        <v>7945945.67295609</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.76619329297309</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>307.7497626883756</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -674,10 +676,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>6.785396893690871</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.77250173713459</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +898,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>89.19088307610525</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>179.2007634395922</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -947,7 +949,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -959,7 +961,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,16 +1056,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>81.56312795822599</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>241.957711558303</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1141,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>221.7368040161788</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>315.0489517761094</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>98.00339857442937</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1351,7 +1353,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1385,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>72.17547515117224</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.172623058946801</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.4252075691918</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1619,10 +1621,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>378.4969209479833</v>
       </c>
       <c r="H14" t="n">
-        <v>47.42686716626402</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.4252075691918</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>170.7879507721959</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>155.6942298771793</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2008,19 +2010,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>123.4663257560838</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>248.9925180568699</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H23" t="n">
-        <v>304.7162152260364</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2488,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>134.6519553698979</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>13.88126300749902</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>80.09751710528867</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>59.78186949969471</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2846,10 +2848,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>54.68688746169133</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>356.9224994274309</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>342.079573227209</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3562652764835</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.74588807992554</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3436,10 +3438,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>170.7879507721958</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>98.41262563052148</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>142.535930338006</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3749,16 +3751,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>322.7929760545761</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>59.51242484270968</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3901,10 +3903,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>29.11907675700227</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>206.195667171657</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>289.3118593140105</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>300.1495770705485</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4137,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>83.48859423563589</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4150,10 +4152,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>14.36834313439029</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2514.534933932999</v>
+        <v>1198.766126021982</v>
       </c>
       <c r="C2" t="n">
-        <v>2104.410343246269</v>
+        <v>1192.681939375656</v>
       </c>
       <c r="D2" t="n">
-        <v>1699.94641333933</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E2" t="n">
-        <v>1285.606197856226</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>864.5757858099139</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>455.8475017027461</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>596.7467427565767</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1309.338142568815</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.338142568815</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1756.574528040604</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>2400.205384457709</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2571.87452311782</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>2571.87452311782</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>2571.87452311782</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W2" t="n">
-        <v>2571.87452311782</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X2" t="n">
-        <v>2571.87452311782</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y2" t="n">
-        <v>2571.87452311782</v>
+        <v>1608.987305686471</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>58.5872416475372</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>719.6754135668255</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>839.4134544636129</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N3" t="n">
-        <v>839.4134544636129</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1543.370545009507</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2105.076437498037</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2105.076437498037</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.5872416475372</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C4" t="n">
-        <v>58.5872416475372</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>58.5872416475372</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>58.5872416475372</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>58.5872416475372</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1348.437399245089</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U4" t="n">
-        <v>1065.639251791214</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V4" t="n">
-        <v>791.7535067307356</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="W4" t="n">
-        <v>512.6838422396099</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="X4" t="n">
-        <v>274.3399800992933</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.2869480415816</v>
+        <v>1021.606826291318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1393.201480237631</v>
+        <v>1899.845002066952</v>
       </c>
       <c r="C5" t="n">
-        <v>1303.109679150656</v>
+        <v>1489.720411380222</v>
       </c>
       <c r="D5" t="n">
-        <v>898.6457492437168</v>
+        <v>1085.256481473283</v>
       </c>
       <c r="E5" t="n">
-        <v>888.3459378010175</v>
+        <v>670.9162659901795</v>
       </c>
       <c r="F5" t="n">
-        <v>467.315525754705</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G5" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J5" t="n">
-        <v>312.7727131152915</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K5" t="n">
-        <v>850.932214224331</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L5" t="n">
-        <v>850.932214224331</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M5" t="n">
-        <v>850.932214224331</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N5" t="n">
-        <v>1394.856875555747</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O5" t="n">
-        <v>2038.487731972852</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P5" t="n">
-        <v>2567.644429892003</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T5" t="n">
-        <v>2794.081007170961</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U5" t="n">
-        <v>2537.020515430471</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V5" t="n">
-        <v>2187.182960766952</v>
+        <v>3094.469880427321</v>
       </c>
       <c r="W5" t="n">
-        <v>1803.422659902121</v>
+        <v>2710.709579562489</v>
       </c>
       <c r="X5" t="n">
-        <v>1803.422659902121</v>
+        <v>2310.066181731442</v>
       </c>
       <c r="Y5" t="n">
-        <v>1803.422659902121</v>
+        <v>2310.066181731442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L6" t="n">
-        <v>1030.214857425781</v>
+        <v>742.2652816410956</v>
       </c>
       <c r="M6" t="n">
-        <v>1030.214857425781</v>
+        <v>1585.242362335662</v>
       </c>
       <c r="N6" t="n">
-        <v>1755.231972814054</v>
+        <v>1585.242362335662</v>
       </c>
       <c r="O6" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P6" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.5872416475372</v>
+        <v>853.6531137539441</v>
       </c>
       <c r="C7" t="n">
-        <v>58.5872416475372</v>
+        <v>682.5597413156606</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5872416475372</v>
+        <v>523.0650966385706</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>362.15428150689</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1505.599140330785</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S7" t="n">
-        <v>1505.599140330785</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="T7" t="n">
-        <v>1266.050401307487</v>
+        <v>1285.754548994759</v>
       </c>
       <c r="U7" t="n">
-        <v>983.2522538536116</v>
+        <v>1285.754548994759</v>
       </c>
       <c r="V7" t="n">
-        <v>709.3665087931336</v>
+        <v>1041.352820147988</v>
       </c>
       <c r="W7" t="n">
-        <v>709.3665087931336</v>
+        <v>1041.352820147988</v>
       </c>
       <c r="X7" t="n">
-        <v>471.0226466528169</v>
+        <v>1041.352820147988</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.2869480415816</v>
+        <v>1041.352820147988</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.48255544353</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C8" t="n">
-        <v>1118.3579647568</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D8" t="n">
-        <v>713.8940348498609</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E8" t="n">
-        <v>703.5942234071616</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F8" t="n">
-        <v>282.5638113608492</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M8" t="n">
-        <v>1496.195756848048</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N8" t="n">
-        <v>2221.212872236321</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O8" t="n">
-        <v>2864.843728653426</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P8" t="n">
-        <v>2864.843728653426</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="U8" t="n">
-        <v>2672.30159063637</v>
+        <v>3666.513919143981</v>
       </c>
       <c r="V8" t="n">
-        <v>2322.464035972851</v>
+        <v>3666.513919143981</v>
       </c>
       <c r="W8" t="n">
-        <v>1938.70373510802</v>
+        <v>3666.513919143981</v>
       </c>
       <c r="X8" t="n">
-        <v>1938.70373510802</v>
+        <v>3348.282654723669</v>
       </c>
       <c r="Y8" t="n">
-        <v>1938.70373510802</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L9" t="n">
-        <v>1175.481669832124</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="M9" t="n">
-        <v>1175.481669832124</v>
+        <v>924.154190416374</v>
       </c>
       <c r="N9" t="n">
-        <v>1175.481669832124</v>
+        <v>1797.812282527992</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>328.6739459791837</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C10" t="n">
-        <v>157.5805735409002</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.437399245089</v>
+        <v>1380.010227478839</v>
       </c>
       <c r="U10" t="n">
-        <v>1065.639251791214</v>
+        <v>1097.212080024963</v>
       </c>
       <c r="V10" t="n">
-        <v>791.7535067307356</v>
+        <v>823.3263349644849</v>
       </c>
       <c r="W10" t="n">
-        <v>791.7535067307356</v>
+        <v>544.2566704733592</v>
       </c>
       <c r="X10" t="n">
-        <v>553.409644590419</v>
+        <v>305.9128083330427</v>
       </c>
       <c r="Y10" t="n">
-        <v>328.6739459791837</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>974.6977004839443</v>
+        <v>2523.677559679062</v>
       </c>
       <c r="C11" t="n">
-        <v>974.6977004839443</v>
+        <v>2113.552968992332</v>
       </c>
       <c r="D11" t="n">
-        <v>974.6977004839443</v>
+        <v>1709.089039085392</v>
       </c>
       <c r="E11" t="n">
-        <v>974.6977004839443</v>
+        <v>1294.748823602289</v>
       </c>
       <c r="F11" t="n">
-        <v>553.6672884376319</v>
+        <v>873.7184115559767</v>
       </c>
       <c r="G11" t="n">
-        <v>144.9390043304641</v>
+        <v>464.9901274488088</v>
       </c>
       <c r="H11" t="n">
-        <v>144.9390043304641</v>
+        <v>154.0816300765268</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K11" t="n">
-        <v>123.1055953709714</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L11" t="n">
-        <v>835.6969951832094</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M11" t="n">
-        <v>1560.714110571482</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N11" t="n">
-        <v>2285.731225959755</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>4034.215172609714</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.096806559742</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V11" t="n">
-        <v>2570.259251896223</v>
+        <v>3709.017931426851</v>
       </c>
       <c r="W11" t="n">
-        <v>2186.498951031391</v>
+        <v>3325.257630562019</v>
       </c>
       <c r="X11" t="n">
-        <v>1785.855553200344</v>
+        <v>2924.614232730972</v>
       </c>
       <c r="Y11" t="n">
-        <v>1384.918880148434</v>
+        <v>2523.677559679062</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L12" t="n">
-        <v>719.6754135668255</v>
+        <v>742.2652816410956</v>
       </c>
       <c r="M12" t="n">
-        <v>719.6754135668255</v>
+        <v>742.2652816410956</v>
       </c>
       <c r="N12" t="n">
-        <v>719.6754135668255</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O12" t="n">
-        <v>1423.63250411272</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P12" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1760.716670401421</v>
+        <v>2113.456380014572</v>
       </c>
       <c r="C14" t="n">
-        <v>1350.59207971469</v>
+        <v>1703.331789327843</v>
       </c>
       <c r="D14" t="n">
-        <v>1350.59207971469</v>
+        <v>1298.867859420903</v>
       </c>
       <c r="E14" t="n">
-        <v>936.2518642315872</v>
+        <v>884.5276439377999</v>
       </c>
       <c r="F14" t="n">
-        <v>515.2214521852748</v>
+        <v>463.4972318914874</v>
       </c>
       <c r="G14" t="n">
-        <v>106.4931680781069</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>105.8174232024641</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>643.9769243115036</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>1356.568324123742</v>
       </c>
       <c r="M14" t="n">
-        <v>1496.195756848048</v>
+        <v>2132.886915115495</v>
       </c>
       <c r="N14" t="n">
-        <v>2221.212872236321</v>
+        <v>2886.067931754113</v>
       </c>
       <c r="O14" t="n">
-        <v>2864.843728653426</v>
+        <v>3529.698788171218</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T14" t="n">
-        <v>2571.87452311782</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U14" t="n">
-        <v>2571.87452311782</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V14" t="n">
-        <v>2571.87452311782</v>
+        <v>3709.017931426851</v>
       </c>
       <c r="W14" t="n">
-        <v>2571.87452311782</v>
+        <v>3325.257630562019</v>
       </c>
       <c r="X14" t="n">
-        <v>2571.87452311782</v>
+        <v>2924.614232730972</v>
       </c>
       <c r="Y14" t="n">
-        <v>2170.93785006591</v>
+        <v>2523.677559679062</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>924.154190416374</v>
       </c>
       <c r="N15" t="n">
-        <v>1508.621472424083</v>
+        <v>1797.812282527992</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>263.6092238691901</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1914.319620822223</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1509.855690915283</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1095.51547543218</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>674.4850633858673</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>265.7567792786995</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4269.84331758475</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3920.005762921231</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M18" t="n">
-        <v>1789.888428857139</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N18" t="n">
-        <v>1789.888428857139</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>548.5451751656769</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>377.4518027273934</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>217.9571580503035</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5707,16 +5709,16 @@
         <v>1339.844446857597</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.958701797119</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W19" t="n">
-        <v>786.8890373059935</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X19" t="n">
-        <v>548.5451751656769</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="Y19" t="n">
-        <v>548.5451751656769</v>
+        <v>1339.844446857597</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5834,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U22" t="n">
-        <v>859.9217748466467</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V22" t="n">
-        <v>586.0360297861687</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W22" t="n">
-        <v>586.0360297861687</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.725286714852</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2049.600696028122</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.136766121183</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.796550638079</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>809.7661385917668</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>401.0378544845989</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -5987,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6072,13 +6074,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3788.915946046752</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C25" t="n">
-        <v>3617.822573608469</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D25" t="n">
-        <v>3458.327928931379</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E25" t="n">
-        <v>3297.417113799698</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
         <v>3132.785987910289</v>
@@ -6169,28 +6171,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>4337.363427183242</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U25" t="n">
-        <v>4337.363427183242</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V25" t="n">
-        <v>4337.363427183242</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W25" t="n">
-        <v>4337.363427183242</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X25" t="n">
-        <v>4201.351351052032</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y25" t="n">
-        <v>3976.615652440797</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1236.515282066875</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>2110.173374178493</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.3370701289063</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6415,19 +6417,19 @@
         <v>1537.369875986873</v>
       </c>
       <c r="U28" t="n">
-        <v>1254.571728532997</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V28" t="n">
-        <v>1194.186001765628</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W28" t="n">
-        <v>915.1163372745027</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="X28" t="n">
-        <v>676.772475134186</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.0367765229507</v>
+        <v>1263.484130926395</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6458,13 +6460,13 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6494,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>971.8633271658769</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>800.7699547275934</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>641.2753100505033</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>480.3644949188228</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>315.7333690294141</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>148.4829779549575</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>275.6758118380055</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>93.2436976906228</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>1159.563033559921</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6737,13 +6739,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C33" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D33" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E33" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S33" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T33" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U33" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V33" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W33" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X33" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3303.879360348573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1593.281623979807</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T34" t="n">
-        <v>4228.544372554647</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U34" t="n">
-        <v>4228.544372554647</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V34" t="n">
-        <v>3954.658627494169</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W34" t="n">
-        <v>3954.658627494169</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X34" t="n">
-        <v>3716.314765353853</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y34" t="n">
-        <v>3491.579066742617</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977907</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>3084.569701873628</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.231502096085</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C37" t="n">
-        <v>895.138129657802</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D37" t="n">
-        <v>735.6434849807119</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>1111.429368843485</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.429368843485</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.429368843485</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4097.330235996674</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>213.3947382540484</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>213.3947382540484</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4105.773792315753</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C40" t="n">
-        <v>3934.680419877469</v>
+        <v>308.996436142379</v>
       </c>
       <c r="D40" t="n">
-        <v>3775.185775200379</v>
+        <v>308.996436142379</v>
       </c>
       <c r="E40" t="n">
-        <v>3614.274960068698</v>
+        <v>308.996436142379</v>
       </c>
       <c r="F40" t="n">
-        <v>3449.64383417929</v>
+        <v>308.996436142379</v>
       </c>
       <c r="G40" t="n">
-        <v>3282.393443104833</v>
+        <v>308.996436142379</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>4518.209197321033</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>4293.473498709797</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1708.546389770622</v>
+        <v>1721.114813068183</v>
       </c>
       <c r="C41" t="n">
-        <v>1298.421799083892</v>
+        <v>1721.114813068183</v>
       </c>
       <c r="D41" t="n">
-        <v>893.957869176953</v>
+        <v>1316.650883161244</v>
       </c>
       <c r="E41" t="n">
-        <v>479.6176536938497</v>
+        <v>902.3106676781406</v>
       </c>
       <c r="F41" t="n">
-        <v>58.5872416475372</v>
+        <v>576.2571565119021</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J41" t="n">
-        <v>312.7727131152915</v>
+        <v>105.8174232024641</v>
       </c>
       <c r="K41" t="n">
-        <v>312.7727131152915</v>
+        <v>643.9769243115036</v>
       </c>
       <c r="L41" t="n">
-        <v>1025.36411292753</v>
+        <v>1356.568324123742</v>
       </c>
       <c r="M41" t="n">
-        <v>1750.381228315802</v>
+        <v>2132.886915115495</v>
       </c>
       <c r="N41" t="n">
-        <v>2079.044377662417</v>
+        <v>2886.067931754113</v>
       </c>
       <c r="O41" t="n">
-        <v>2079.044377662417</v>
+        <v>3529.698788171218</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>3666.513919143981</v>
       </c>
       <c r="V41" t="n">
-        <v>2579.524527713341</v>
+        <v>3316.676364480462</v>
       </c>
       <c r="W41" t="n">
-        <v>2579.524527713341</v>
+        <v>2932.91606361563</v>
       </c>
       <c r="X41" t="n">
-        <v>2178.881129882293</v>
+        <v>2532.272665784583</v>
       </c>
       <c r="Y41" t="n">
-        <v>2118.767569435112</v>
+        <v>2131.335992732673</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>904.1637487767061</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.621472424083</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>418.5884676083675</v>
+        <v>413.1812972917714</v>
       </c>
       <c r="C43" t="n">
-        <v>247.495095170084</v>
+        <v>242.0879248534879</v>
       </c>
       <c r="D43" t="n">
-        <v>88.00045049299405</v>
+        <v>242.0879248534879</v>
       </c>
       <c r="E43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T43" t="n">
-        <v>1348.437399245089</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U43" t="n">
-        <v>1348.437399245089</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V43" t="n">
-        <v>1348.437399245089</v>
+        <v>879.9506681769415</v>
       </c>
       <c r="W43" t="n">
-        <v>1069.367734753964</v>
+        <v>600.8810036858158</v>
       </c>
       <c r="X43" t="n">
-        <v>831.0238726136472</v>
+        <v>600.8810036858158</v>
       </c>
       <c r="Y43" t="n">
-        <v>606.2881740024119</v>
+        <v>600.8810036858158</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>877.39138703758</v>
+        <v>1498.908329015042</v>
       </c>
       <c r="C44" t="n">
-        <v>877.39138703758</v>
+        <v>1088.783738328312</v>
       </c>
       <c r="D44" t="n">
-        <v>472.9274571306405</v>
+        <v>684.3198084213727</v>
       </c>
       <c r="E44" t="n">
-        <v>58.5872416475372</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K44" t="n">
-        <v>312.7727131152915</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L44" t="n">
-        <v>312.7727131152915</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M44" t="n">
-        <v>991.0007669627659</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N44" t="n">
-        <v>1716.017882351039</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O44" t="n">
-        <v>2359.648738768144</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P44" t="n">
-        <v>2888.805436687295</v>
+        <v>4034.215172609714</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U44" t="n">
-        <v>2314.81403137733</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.976476713811</v>
+        <v>3094.469880427321</v>
       </c>
       <c r="W44" t="n">
-        <v>1581.216175848979</v>
+        <v>2710.709579562489</v>
       </c>
       <c r="X44" t="n">
-        <v>1180.572778017932</v>
+        <v>2310.066181731442</v>
       </c>
       <c r="Y44" t="n">
-        <v>877.39138703758</v>
+        <v>1909.129508679532</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L45" t="n">
-        <v>58.5872416475372</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="M45" t="n">
-        <v>783.60435703581</v>
+        <v>2041.048618600961</v>
       </c>
       <c r="N45" t="n">
-        <v>1051.274882268159</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="O45" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P45" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>901.6649882026295</v>
+        <v>904.5574589327268</v>
       </c>
       <c r="C46" t="n">
-        <v>901.6649882026295</v>
+        <v>733.4640864944433</v>
       </c>
       <c r="D46" t="n">
-        <v>817.3330748333003</v>
+        <v>573.9694418173533</v>
       </c>
       <c r="E46" t="n">
-        <v>656.4222597016197</v>
+        <v>413.0586266856727</v>
       </c>
       <c r="F46" t="n">
-        <v>491.791133812211</v>
+        <v>248.427500796264</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="U46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="V46" t="n">
-        <v>1314.100393207909</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="W46" t="n">
-        <v>1314.100393207909</v>
+        <v>1331.506341851532</v>
       </c>
       <c r="X46" t="n">
-        <v>1314.100393207909</v>
+        <v>1316.992863938006</v>
       </c>
       <c r="Y46" t="n">
-        <v>1089.364694596674</v>
+        <v>1092.257165326771</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>544.6662154755978</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>178.5117997957785</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>642.3311405863321</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>287.6689177404308</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8295,25 +8297,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>577.1462000865509</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8453,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>536.9682567677057</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>155.2038586652473</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,22 +8534,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>429.3564034215989</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8690,25 +8692,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>114.9230099351687</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8778,16 +8780,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>389.2085932869795</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>98.21279686932478</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9012,13 +9014,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>660.231241700964</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9240,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M18" t="n">
-        <v>448.4101882023532</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9419,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9480,28 +9482,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>610.0079012849245</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,16 +9722,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9951,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>557.2132438882359</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -9975,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10607,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,13 +10673,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10838,7 +10840,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10902,7 +10904,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>177.1904702224191</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
@@ -10911,19 +10913,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>98.21279686932478</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>424.8952698946136</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11145,19 +11147,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>888.8639191474061</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>660.231241700964</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>778.3690667272216</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11315,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>114.9230099351687</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>323.5676613052141</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13.31276990492533</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>245.3172637641382</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>82.68617307340611</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>26.14408031811286</v>
       </c>
       <c r="H14" t="n">
-        <v>260.3725452322952</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>82.68617307340611</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>137.0114616263633</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>30.12847945292467</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>35.83538122427987</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>30.97764792246718</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H23" t="n">
-        <v>3.08319717252283</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -24427,10 +24429,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3084681490155</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.7251922248153</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>211.3650181101785</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24683,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24734,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>93.42449318090658</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49.1964684404137</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>37.84312462897412</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>76.79698635658144</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.0768212501784</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25372,13 +25374,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>56.01419322081091</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>49.19646844041395</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>49.69875501207643</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>93.42449318090749</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>94.02713187127318</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>337.4148814786811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>130.1826302233615</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>64.95122043821627</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>120.8849540142617</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -25880,7 +25882,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.7777292508423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>74.41110399468319</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>221.5920803845231</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>760572.7678685834</v>
+        <v>758915.8704612007</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>760572.7678685834</v>
+        <v>762797.7557836563</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>760572.7678685834</v>
+        <v>762797.7557836563</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523610.0494002086</v>
+        <v>626147.7274711734</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523610.0494002088</v>
+        <v>626147.7274711734</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680919.1811376348</v>
+        <v>680919.1811376347</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680919.1811376349</v>
+        <v>680919.1811376348</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680919.1811376347</v>
+        <v>680919.1811376348</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680919.1811376346</v>
+        <v>680919.1811376349</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680919.1811376347</v>
+        <v>680919.1811376349</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>523610.0494002086</v>
+        <v>626147.7274711734</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523610.0494002085</v>
+        <v>626147.7274711734</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>390917.7432778967</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778968</v>
+        <v>390917.743277897</v>
       </c>
       <c r="D2" t="n">
-        <v>390917.7432778967</v>
+        <v>390917.743277897</v>
       </c>
       <c r="E2" t="n">
-        <v>267285.0205987446</v>
+        <v>319622.0763322538</v>
       </c>
       <c r="F2" t="n">
-        <v>267285.0205987447</v>
+        <v>319622.0763322537</v>
       </c>
       <c r="G2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="H2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="I2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="J2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="K2" t="n">
+        <v>347578.4010421128</v>
+      </c>
+      <c r="L2" t="n">
         <v>347578.401042113</v>
       </c>
-      <c r="L2" t="n">
-        <v>347578.4010421128</v>
-      </c>
       <c r="M2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="N2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="O2" t="n">
-        <v>267285.0205987446</v>
+        <v>319622.0763322536</v>
       </c>
       <c r="P2" t="n">
-        <v>267285.0205987447</v>
+        <v>319622.0763322537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>159160.8707514664</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>41340.88454290959</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126792.4227070339</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129456.2246430208</v>
+        <v>164775.2337200961</v>
       </c>
       <c r="C4" t="n">
-        <v>129456.2246430208</v>
+        <v>82027.59809155836</v>
       </c>
       <c r="D4" t="n">
-        <v>129456.2246430207</v>
+        <v>82027.59809155835</v>
       </c>
       <c r="E4" t="n">
-        <v>11847.07869616807</v>
+        <v>14205.56588614525</v>
       </c>
       <c r="F4" t="n">
-        <v>11847.07869616807</v>
+        <v>14205.56588614525</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>11847.07869616807</v>
+        <v>14205.56588614525</v>
       </c>
       <c r="P4" t="n">
-        <v>11847.07869616807</v>
+        <v>14205.56588614525</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62116.53730034742</v>
+        <v>-14182.06541381101</v>
       </c>
       <c r="C6" t="n">
-        <v>183307.6149827477</v>
+        <v>54407.07104629857</v>
       </c>
       <c r="D6" t="n">
-        <v>183307.6149827476</v>
+        <v>213567.9417977651</v>
       </c>
       <c r="E6" t="n">
-        <v>210911.6382504483</v>
+        <v>243721.9070575349</v>
       </c>
       <c r="F6" t="n">
-        <v>210911.6382504484</v>
+        <v>243721.9070575348</v>
       </c>
       <c r="G6" t="n">
-        <v>142512.6326280616</v>
+        <v>219906.932517266</v>
       </c>
       <c r="H6" t="n">
-        <v>261247.8170601756</v>
+        <v>261247.8170601755</v>
       </c>
       <c r="I6" t="n">
-        <v>261247.8170601756</v>
+        <v>261247.8170601755</v>
       </c>
       <c r="J6" t="n">
-        <v>69635.31388982273</v>
+        <v>124653.0162542806</v>
       </c>
       <c r="K6" t="n">
-        <v>261247.8170601757</v>
+        <v>134455.3943531417</v>
       </c>
       <c r="L6" t="n">
+        <v>261247.8170601758</v>
+      </c>
+      <c r="M6" t="n">
         <v>261247.8170601755</v>
-      </c>
-      <c r="M6" t="n">
-        <v>261247.8170601756</v>
       </c>
       <c r="N6" t="n">
         <v>261247.8170601756</v>
       </c>
       <c r="O6" t="n">
-        <v>210911.6382504483</v>
+        <v>243721.9070575348</v>
       </c>
       <c r="P6" t="n">
-        <v>210911.6382504484</v>
+        <v>243721.9070575348</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.3527745748715</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92.66952791949444</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.0373124364131</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.7158398879884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>316.8324617037573</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>237.6193444862571</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27792,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.856863183128354</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>29.18917605157023</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>182.9041972499173</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>81.58801207662759</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>59.89629965588971</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28062,7 +28064,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>451.7539247189785</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>120.947516057361</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>549.4188498297128</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>194.0195544595466</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>521.0316762757019</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>443.6780323106602</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>65.17005426609525</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>371.6049244215989</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>24.88920553601663</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>334.9489582841758</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>24.88920553601683</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>602.479762700964</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M18" t="n">
-        <v>390.8459044639358</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36200,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>555.7482662821208</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>499.6489601498184</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>121.3646874378037</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>24.88920553601683</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>331.9829791379943</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>831.2996354089887</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>602.479762700964</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>685.0788422701761</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38035,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>24.88920553601663</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>270.3742679114641</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515575.084948352</v>
+        <v>1514151.387217076</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5435918.088148478</v>
+        <v>5435918.088148477</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2632905.856953524</v>
+        <v>2632905.856953525</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>307.7497626883756</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>398.6248860420495</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.785396893690871</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -831,7 +831,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>84.57902185950327</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>179.2007634395922</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>103.8503284528953</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -1068,10 +1068,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>241.957711558303</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>326.9074413441147</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>315.0489517761094</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>228.2601210751807</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>125.4850007266464</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>72.17547515117224</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.4252075691918</v>
+        <v>29.05028512879881</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>159.9904683371216</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1621,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>378.4969209479833</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>43.73227063629164</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.4252075691918</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>328.2486656972288</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.6942298771793</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>102.712137263033</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>98.41262563052148</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>177.9195839254091</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2478,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507669</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.88126300749902</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.09751710528867</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>129.1752199258842</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>101.6409518870423</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>54.68688746169133</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>129.1752199258842</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,10 +3040,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>108.2642464846189</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3091,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>342.079573227209</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>224.065351841749</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>407.1136161557494</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3283,7 +3283,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3429,16 +3429,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>220.2647746254034</v>
+        <v>263.7262196930154</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>360.176182737529</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>98.41262563052148</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>190.6582226928932</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>302.1375453667736</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3751,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>322.7929760545761</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3903,16 +3903,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>49.74494152752815</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>206.195667171657</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>289.3118593140105</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>320.1950987987711</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4146,10 +4146,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>154.3502656493825</v>
       </c>
       <c r="X46" t="n">
-        <v>14.36834313439029</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1198.766126021982</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C2" t="n">
-        <v>1192.681939375656</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D2" t="n">
-        <v>881.8235932257816</v>
+        <v>1267.484985262347</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>853.1447697792441</v>
       </c>
       <c r="F2" t="n">
         <v>450.4933697367699</v>
@@ -4333,19 +4333,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N2" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>52.35970185319792</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M3" t="n">
-        <v>1708.850297433489</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="N3" t="n">
-        <v>1708.850297433489</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1014.752890035065</v>
+        <v>847.5024989606081</v>
       </c>
       <c r="C4" t="n">
-        <v>843.6595175967814</v>
+        <v>676.4091265223246</v>
       </c>
       <c r="D4" t="n">
-        <v>684.1648729196913</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G4" t="n">
         <v>191.3725408241454</v>
@@ -4518,22 +4518,22 @@
         <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1246.342524902554</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1246.342524902554</v>
+        <v>1400.457908512212</v>
       </c>
       <c r="V4" t="n">
-        <v>1246.342524902554</v>
+        <v>1126.572163451734</v>
       </c>
       <c r="W4" t="n">
-        <v>1246.342524902554</v>
+        <v>847.5024989606081</v>
       </c>
       <c r="X4" t="n">
-        <v>1246.342524902554</v>
+        <v>847.5024989606081</v>
       </c>
       <c r="Y4" t="n">
-        <v>1021.606826291318</v>
+        <v>847.5024989606081</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.845002066952</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C5" t="n">
-        <v>1489.720411380222</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D5" t="n">
-        <v>1085.256481473283</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E5" t="n">
-        <v>670.9162659901795</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F5" t="n">
-        <v>489.9053938289752</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G5" t="n">
-        <v>81.1771097218074</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H5" t="n">
-        <v>81.1771097218074</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I5" t="n">
         <v>81.1771097218074</v>
@@ -4570,49 +4570,49 @@
         <v>81.1771097218074</v>
       </c>
       <c r="K5" t="n">
-        <v>619.3366108308469</v>
+        <v>322.8159175162116</v>
       </c>
       <c r="L5" t="n">
-        <v>1331.928010643085</v>
+        <v>1035.40731732845</v>
       </c>
       <c r="M5" t="n">
-        <v>2108.246601634839</v>
+        <v>1811.725908320203</v>
       </c>
       <c r="N5" t="n">
-        <v>2861.427618273457</v>
+        <v>2564.906924958821</v>
       </c>
       <c r="O5" t="n">
-        <v>3505.058474690562</v>
+        <v>3208.537781375926</v>
       </c>
       <c r="P5" t="n">
-        <v>3697.137833605513</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="Q5" t="n">
-        <v>4018.298840400805</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R5" t="n">
         <v>4058.85548609037</v>
       </c>
       <c r="S5" t="n">
-        <v>3923.574410884471</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T5" t="n">
-        <v>3701.36792683133</v>
+        <v>3836.649002037229</v>
       </c>
       <c r="U5" t="n">
-        <v>3444.30743509084</v>
+        <v>3731.749680367638</v>
       </c>
       <c r="V5" t="n">
-        <v>3094.469880427321</v>
+        <v>3731.749680367638</v>
       </c>
       <c r="W5" t="n">
-        <v>2710.709579562489</v>
+        <v>3347.989379502806</v>
       </c>
       <c r="X5" t="n">
-        <v>2310.066181731442</v>
+        <v>2947.345981671759</v>
       </c>
       <c r="Y5" t="n">
-        <v>2310.066181731442</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J6" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K6" t="n">
-        <v>81.1771097218074</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L6" t="n">
-        <v>742.2652816410956</v>
+        <v>1224.44869409806</v>
       </c>
       <c r="M6" t="n">
-        <v>1585.242362335662</v>
+        <v>1224.44869409806</v>
       </c>
       <c r="N6" t="n">
-        <v>1585.242362335662</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="O6" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="P6" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="Q6" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R6" t="n">
         <v>2127.666305572307</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>853.6531137539441</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="C7" t="n">
-        <v>682.5597413156606</v>
+        <v>999.4175875846604</v>
       </c>
       <c r="D7" t="n">
-        <v>523.0650966385706</v>
+        <v>839.9229429075704</v>
       </c>
       <c r="E7" t="n">
-        <v>362.15428150689</v>
+        <v>679.0121277758899</v>
       </c>
       <c r="F7" t="n">
-        <v>197.5231556174813</v>
+        <v>514.3810018864812</v>
       </c>
       <c r="G7" t="n">
-        <v>197.5231556174813</v>
+        <v>347.1306108120246</v>
       </c>
       <c r="H7" t="n">
         <v>197.5231556174813</v>
@@ -4749,28 +4749,28 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S7" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T7" t="n">
-        <v>1285.754548994759</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="U7" t="n">
-        <v>1285.754548994759</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="V7" t="n">
-        <v>1041.352820147988</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="W7" t="n">
-        <v>1041.352820147988</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="X7" t="n">
-        <v>1041.352820147988</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="Y7" t="n">
-        <v>1041.352820147988</v>
+        <v>1358.210666416988</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2537.124802007269</v>
+        <v>2133.084397966865</v>
       </c>
       <c r="C8" t="n">
         <v>2127.000211320539</v>
@@ -4807,10 +4807,10 @@
         <v>81.1771097218074</v>
       </c>
       <c r="K8" t="n">
-        <v>619.3366108308469</v>
+        <v>282.2592718266466</v>
       </c>
       <c r="L8" t="n">
-        <v>1331.928010643085</v>
+        <v>994.8506716388846</v>
       </c>
       <c r="M8" t="n">
         <v>1771.169262630639</v>
@@ -4831,25 +4831,25 @@
         <v>4058.85548609037</v>
       </c>
       <c r="S8" t="n">
-        <v>3923.574410884471</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T8" t="n">
-        <v>3923.574410884471</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U8" t="n">
-        <v>3666.513919143981</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V8" t="n">
-        <v>3666.513919143981</v>
+        <v>3728.645949379143</v>
       </c>
       <c r="W8" t="n">
-        <v>3666.513919143981</v>
+        <v>3344.885648514311</v>
       </c>
       <c r="X8" t="n">
-        <v>3348.282654723669</v>
+        <v>2944.242250683264</v>
       </c>
       <c r="Y8" t="n">
-        <v>2947.345981671759</v>
+        <v>2543.305577631354</v>
       </c>
     </row>
     <row r="9">
@@ -4892,19 +4892,19 @@
         <v>81.1771097218074</v>
       </c>
       <c r="M9" t="n">
-        <v>924.154190416374</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="N9" t="n">
-        <v>1797.812282527992</v>
+        <v>482.5993384912697</v>
       </c>
       <c r="O9" t="n">
-        <v>2127.666305572307</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P9" t="n">
-        <v>2127.666305572307</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q9" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R9" t="n">
         <v>2127.666305572307</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.1771097218074</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="C10" t="n">
-        <v>81.1771097218074</v>
+        <v>999.4175875846604</v>
       </c>
       <c r="D10" t="n">
-        <v>81.1771097218074</v>
+        <v>839.9229429075704</v>
       </c>
       <c r="E10" t="n">
-        <v>81.1771097218074</v>
+        <v>679.0121277758899</v>
       </c>
       <c r="F10" t="n">
-        <v>81.1771097218074</v>
+        <v>514.3810018864812</v>
       </c>
       <c r="G10" t="n">
-        <v>81.1771097218074</v>
+        <v>347.1306108120246</v>
       </c>
       <c r="H10" t="n">
-        <v>81.1771097218074</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I10" t="n">
         <v>81.1771097218074</v>
@@ -4992,22 +4992,22 @@
         <v>1610.576006342658</v>
       </c>
       <c r="T10" t="n">
-        <v>1380.010227478839</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="U10" t="n">
-        <v>1097.212080024963</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="V10" t="n">
-        <v>823.3263349644849</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="W10" t="n">
-        <v>544.2566704733592</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="X10" t="n">
-        <v>305.9128083330427</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.1771097218074</v>
+        <v>1358.210666416988</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.677559679062</v>
+        <v>2139.86454195206</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.552968992332</v>
+        <v>1729.739951265331</v>
       </c>
       <c r="D11" t="n">
-        <v>1709.089039085392</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="E11" t="n">
-        <v>1294.748823602289</v>
+        <v>910.9358058752877</v>
       </c>
       <c r="F11" t="n">
-        <v>873.7184115559767</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G11" t="n">
-        <v>464.9901274488088</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H11" t="n">
-        <v>154.0816300765268</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I11" t="n">
         <v>81.1771097218074</v>
       </c>
       <c r="J11" t="n">
-        <v>81.1771097218074</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K11" t="n">
-        <v>619.3366108308469</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L11" t="n">
-        <v>1331.928010643085</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M11" t="n">
-        <v>2108.246601634839</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N11" t="n">
-        <v>2861.427618273457</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O11" t="n">
-        <v>3505.058474690562</v>
+        <v>3529.698788171218</v>
       </c>
       <c r="P11" t="n">
-        <v>4034.215172609714</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="Q11" t="n">
         <v>4058.85548609037</v>
@@ -5074,19 +5074,19 @@
         <v>4058.85548609037</v>
       </c>
       <c r="U11" t="n">
-        <v>4058.85548609037</v>
+        <v>3801.79499434988</v>
       </c>
       <c r="V11" t="n">
-        <v>3709.017931426851</v>
+        <v>3451.957439686361</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.257630562019</v>
+        <v>3068.197138821529</v>
       </c>
       <c r="X11" t="n">
-        <v>2924.614232730972</v>
+        <v>2667.553740990482</v>
       </c>
       <c r="Y11" t="n">
-        <v>2523.677559679062</v>
+        <v>2266.617067938572</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>81.1771097218074</v>
       </c>
       <c r="K12" t="n">
-        <v>81.1771097218074</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L12" t="n">
-        <v>742.2652816410956</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="M12" t="n">
-        <v>742.2652816410956</v>
+        <v>2041.048618600961</v>
       </c>
       <c r="N12" t="n">
-        <v>1423.709215026413</v>
+        <v>2041.048618600961</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.666305572307</v>
+        <v>2041.048618600961</v>
       </c>
       <c r="P12" t="n">
         <v>2127.666305572307</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.6092238691901</v>
+        <v>595.5574177723087</v>
       </c>
       <c r="C13" t="n">
-        <v>263.6092238691901</v>
+        <v>595.5574177723087</v>
       </c>
       <c r="D13" t="n">
-        <v>263.6092238691901</v>
+        <v>436.0627730952187</v>
       </c>
       <c r="E13" t="n">
-        <v>263.6092238691901</v>
+        <v>275.1519579635382</v>
       </c>
       <c r="F13" t="n">
-        <v>263.6092238691901</v>
+        <v>110.5208320741294</v>
       </c>
       <c r="G13" t="n">
-        <v>263.6092238691901</v>
+        <v>110.5208320741294</v>
       </c>
       <c r="H13" t="n">
-        <v>197.5231556174813</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I13" t="n">
         <v>81.1771097218074</v>
@@ -5232,19 +5232,19 @@
         <v>1099.36278087467</v>
       </c>
       <c r="U13" t="n">
-        <v>816.5646334207938</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="V13" t="n">
-        <v>542.6788883603158</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="W13" t="n">
-        <v>263.6092238691901</v>
+        <v>820.293116383544</v>
       </c>
       <c r="X13" t="n">
-        <v>263.6092238691901</v>
+        <v>820.293116383544</v>
       </c>
       <c r="Y13" t="n">
-        <v>263.6092238691901</v>
+        <v>595.5574177723087</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2113.456380014572</v>
+        <v>2139.86454195206</v>
       </c>
       <c r="C14" t="n">
-        <v>1703.331789327843</v>
+        <v>1729.739951265331</v>
       </c>
       <c r="D14" t="n">
-        <v>1298.867859420903</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="E14" t="n">
-        <v>884.5276439377999</v>
+        <v>910.9358058752877</v>
       </c>
       <c r="F14" t="n">
-        <v>463.4972318914874</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G14" t="n">
         <v>81.1771097218074</v>
@@ -5278,25 +5278,25 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J14" t="n">
-        <v>105.8174232024641</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K14" t="n">
-        <v>643.9769243115036</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L14" t="n">
-        <v>1356.568324123742</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M14" t="n">
-        <v>2132.886915115495</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N14" t="n">
-        <v>2886.067931754113</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O14" t="n">
-        <v>3529.698788171218</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P14" t="n">
-        <v>4058.85548609037</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="Q14" t="n">
         <v>4058.85548609037</v>
@@ -5308,22 +5308,22 @@
         <v>4058.85548609037</v>
       </c>
       <c r="T14" t="n">
-        <v>4058.85548609037</v>
+        <v>3836.649002037229</v>
       </c>
       <c r="U14" t="n">
-        <v>4058.85548609037</v>
+        <v>3836.649002037229</v>
       </c>
       <c r="V14" t="n">
-        <v>3709.017931426851</v>
+        <v>3486.81144737371</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.257630562019</v>
+        <v>3103.051146508878</v>
       </c>
       <c r="X14" t="n">
-        <v>2924.614232730972</v>
+        <v>2702.407748677831</v>
       </c>
       <c r="Y14" t="n">
-        <v>2523.677559679062</v>
+        <v>2301.471075625921</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J15" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K15" t="n">
-        <v>81.1771097218074</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L15" t="n">
-        <v>81.1771097218074</v>
+        <v>1390.884395469028</v>
       </c>
       <c r="M15" t="n">
-        <v>924.154190416374</v>
+        <v>1390.884395469028</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.812282527992</v>
+        <v>1390.884395469028</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.666305572307</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="P15" t="n">
         <v>2127.666305572307</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.6092238691901</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C16" t="n">
-        <v>263.6092238691901</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D16" t="n">
-        <v>263.6092238691901</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E16" t="n">
-        <v>263.6092238691901</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F16" t="n">
-        <v>263.6092238691901</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G16" t="n">
-        <v>263.6092238691901</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H16" t="n">
-        <v>197.5231556174813</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I16" t="n">
         <v>81.1771097218074</v>
@@ -5460,28 +5460,28 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R16" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S16" t="n">
-        <v>1338.911519897968</v>
+        <v>1424.184238222568</v>
       </c>
       <c r="T16" t="n">
-        <v>1099.36278087467</v>
+        <v>1424.184238222568</v>
       </c>
       <c r="U16" t="n">
-        <v>816.5646334207938</v>
+        <v>1141.386090768692</v>
       </c>
       <c r="V16" t="n">
-        <v>542.6788883603158</v>
+        <v>867.5003457082139</v>
       </c>
       <c r="W16" t="n">
-        <v>263.6092238691901</v>
+        <v>588.4306812170882</v>
       </c>
       <c r="X16" t="n">
-        <v>263.6092238691901</v>
+        <v>350.0868190767716</v>
       </c>
       <c r="Y16" t="n">
-        <v>263.6092238691901</v>
+        <v>125.3511204655363</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F17" t="n">
         <v>899.2322418529996</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5548,19 +5548,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>874.0699105066985</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M18" t="n">
-        <v>874.0699105066985</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N18" t="n">
-        <v>874.0699105066985</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>364.2437223641026</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V19" t="n">
-        <v>1339.844446857597</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.844446857597</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="X19" t="n">
-        <v>1339.844446857597</v>
+        <v>776.6791273693823</v>
       </c>
       <c r="Y19" t="n">
-        <v>1339.844446857597</v>
+        <v>551.943428758147</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
         <v>1648.251106699488</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N21" t="n">
-        <v>1210.13812587521</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O21" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>3315.218102057671</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>3132.785987910289</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4222.119838211426</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C25" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>4662.18488453114</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V25" t="n">
-        <v>4662.18488453114</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W25" t="n">
-        <v>4662.18488453114</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X25" t="n">
-        <v>4423.841022390823</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y25" t="n">
-        <v>4409.819544605471</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="26">
@@ -6253,19 +6253,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X26" t="n">
         <v>3360.349242692484</v>
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>393.5382013723083</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V28" t="n">
-        <v>1263.484130926395</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W28" t="n">
-        <v>1263.484130926395</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X28" t="n">
-        <v>1263.484130926395</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y28" t="n">
-        <v>1263.484130926395</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6460,13 +6460,13 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4559.51725636241</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U29" t="n">
-        <v>4304.697325272099</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="30">
@@ -6554,13 +6554,13 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>971.8633271658769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>800.7699547275934</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>641.2753100505033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>480.3644949188228</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>315.7333690294141</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>148.4829779549575</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X31" t="n">
-        <v>1384.298732171156</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y31" t="n">
-        <v>1159.563033559921</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2140.463105868917</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C32" t="n">
-        <v>1730.338515182187</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D32" t="n">
-        <v>1325.874585275247</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E32" t="n">
-        <v>911.5343697921442</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F32" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
         <v>490.5039577458317</v>
@@ -6697,13 +6697,13 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4552.827059799201</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4330.62057574606</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W32" t="n">
-        <v>3352.264356416364</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X32" t="n">
-        <v>2951.620958585316</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y32" t="n">
-        <v>2550.684285533406</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M33" t="n">
-        <v>3458.672769375206</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N33" t="n">
-        <v>4332.330861486824</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>704.8088865910788</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>533.7155141527953</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1593.281623979807</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1406.889855859717</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1167.341116836419</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>884.5429693825431</v>
+        <v>1396.313956087484</v>
       </c>
       <c r="V34" t="n">
-        <v>610.6572243220651</v>
+        <v>1396.313956087484</v>
       </c>
       <c r="W34" t="n">
-        <v>331.5875598309394</v>
+        <v>1117.244291596358</v>
       </c>
       <c r="X34" t="n">
-        <v>93.2436976906228</v>
+        <v>1117.244291596358</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>892.5085929851232</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2151.931129920876</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C35" t="n">
-        <v>1741.806539234146</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.342609327206</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977907</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>93.24369769062287</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4097.330235996674</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V35" t="n">
-        <v>3747.492681333154</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W35" t="n">
-        <v>3363.732380468323</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X35" t="n">
-        <v>2963.088982637275</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.152309585365</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>3084.569701873628</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>3958.227793985246</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.3736558270855</v>
+        <v>431.5874612033629</v>
       </c>
       <c r="C37" t="n">
-        <v>578.280283388802</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D37" t="n">
-        <v>418.7856387117121</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E37" t="n">
-        <v>257.8748235800315</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7131,16 +7131,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W37" t="n">
-        <v>1400.152922972682</v>
+        <v>1082.366728348959</v>
       </c>
       <c r="X37" t="n">
-        <v>1161.809060832365</v>
+        <v>844.0228662086425</v>
       </c>
       <c r="Y37" t="n">
-        <v>937.0733622211299</v>
+        <v>619.2871675974072</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
+        <v>179.5954603735497</v>
+      </c>
+      <c r="I38" t="n">
         <v>93.2436976906228</v>
-      </c>
-      <c r="I38" t="n">
-        <v>93.24369769062287</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>213.3947382540484</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="L39" t="n">
-        <v>213.3947382540484</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="M39" t="n">
-        <v>1056.371818948615</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.371818948615</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
         <v>1760.328909494509</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>308.996436142379</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C40" t="n">
-        <v>308.996436142379</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D40" t="n">
-        <v>308.996436142379</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E40" t="n">
-        <v>308.996436142379</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F40" t="n">
-        <v>308.996436142379</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7365,19 +7365,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>826.4099627738212</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W40" t="n">
-        <v>547.3402982826956</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X40" t="n">
-        <v>308.996436142379</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="Y40" t="n">
-        <v>308.996436142379</v>
+        <v>916.6240469015422</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1721.114813068183</v>
+        <v>2139.86454195206</v>
       </c>
       <c r="C41" t="n">
-        <v>1721.114813068183</v>
+        <v>1729.739951265331</v>
       </c>
       <c r="D41" t="n">
-        <v>1316.650883161244</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="E41" t="n">
-        <v>902.3106676781406</v>
+        <v>910.9358058752877</v>
       </c>
       <c r="F41" t="n">
-        <v>576.2571565119021</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G41" t="n">
-        <v>167.5288724047342</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H41" t="n">
-        <v>167.5288724047342</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I41" t="n">
         <v>81.1771097218074</v>
       </c>
       <c r="J41" t="n">
-        <v>105.8174232024641</v>
+        <v>282.2592718266466</v>
       </c>
       <c r="K41" t="n">
-        <v>643.9769243115036</v>
+        <v>282.2592718266466</v>
       </c>
       <c r="L41" t="n">
-        <v>1356.568324123742</v>
+        <v>994.8506716388846</v>
       </c>
       <c r="M41" t="n">
-        <v>2132.886915115495</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N41" t="n">
-        <v>2886.067931754113</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O41" t="n">
-        <v>3529.698788171218</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P41" t="n">
-        <v>4058.85548609037</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q41" t="n">
-        <v>4058.85548609037</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R41" t="n">
         <v>4058.85548609037</v>
       </c>
       <c r="S41" t="n">
-        <v>3923.574410884471</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T41" t="n">
-        <v>3923.574410884471</v>
+        <v>3836.649002037229</v>
       </c>
       <c r="U41" t="n">
-        <v>3666.513919143981</v>
+        <v>3579.588510296739</v>
       </c>
       <c r="V41" t="n">
-        <v>3316.676364480462</v>
+        <v>3229.75095563322</v>
       </c>
       <c r="W41" t="n">
-        <v>2932.91606361563</v>
+        <v>2845.990654768388</v>
       </c>
       <c r="X41" t="n">
-        <v>2532.272665784583</v>
+        <v>2845.990654768388</v>
       </c>
       <c r="Y41" t="n">
-        <v>2131.335992732673</v>
+        <v>2445.053981716478</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>81.1771097218074</v>
       </c>
       <c r="M42" t="n">
-        <v>904.1637487767061</v>
+        <v>342.4578562881761</v>
       </c>
       <c r="N42" t="n">
-        <v>1777.821840888324</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="O42" t="n">
-        <v>1777.821840888324</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="P42" t="n">
         <v>1777.821840888324</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.1812972917714</v>
+        <v>626.6436684109615</v>
       </c>
       <c r="C43" t="n">
-        <v>242.0879248534879</v>
+        <v>455.550295972678</v>
       </c>
       <c r="D43" t="n">
-        <v>242.0879248534879</v>
+        <v>296.055651295588</v>
       </c>
       <c r="E43" t="n">
-        <v>81.1771097218074</v>
+        <v>296.055651295588</v>
       </c>
       <c r="F43" t="n">
-        <v>81.1771097218074</v>
+        <v>131.4245254061793</v>
       </c>
       <c r="G43" t="n">
         <v>81.1771097218074</v>
@@ -7605,16 +7605,16 @@
         <v>1088.229119865484</v>
       </c>
       <c r="V43" t="n">
-        <v>879.9506681769415</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W43" t="n">
-        <v>600.8810036858158</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="X43" t="n">
-        <v>600.8810036858158</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="Y43" t="n">
-        <v>600.8810036858158</v>
+        <v>814.3433748050059</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1498.908329015042</v>
+        <v>2139.86454195206</v>
       </c>
       <c r="C44" t="n">
-        <v>1088.783738328312</v>
+        <v>1729.739951265331</v>
       </c>
       <c r="D44" t="n">
-        <v>684.3198084213727</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="E44" t="n">
-        <v>392.0856070940894</v>
+        <v>910.9358058752877</v>
       </c>
       <c r="F44" t="n">
-        <v>392.0856070940894</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G44" t="n">
-        <v>392.0856070940894</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H44" t="n">
         <v>81.1771097218074</v>
@@ -7648,52 +7648,52 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J44" t="n">
-        <v>81.1771097218074</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K44" t="n">
-        <v>619.3366108308469</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L44" t="n">
-        <v>1331.928010643085</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M44" t="n">
-        <v>2108.246601634839</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N44" t="n">
-        <v>2861.427618273457</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O44" t="n">
-        <v>3505.058474690562</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P44" t="n">
-        <v>4034.215172609714</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q44" t="n">
-        <v>4058.85548609037</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R44" t="n">
         <v>4058.85548609037</v>
       </c>
       <c r="S44" t="n">
-        <v>3923.574410884471</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T44" t="n">
-        <v>3701.36792683133</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U44" t="n">
-        <v>3444.30743509084</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V44" t="n">
-        <v>3094.469880427321</v>
+        <v>3735.426093364339</v>
       </c>
       <c r="W44" t="n">
-        <v>2710.709579562489</v>
+        <v>3351.665792499507</v>
       </c>
       <c r="X44" t="n">
-        <v>2310.066181731442</v>
+        <v>2951.02239466846</v>
       </c>
       <c r="Y44" t="n">
-        <v>1909.129508679532</v>
+        <v>2550.08572161655</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J45" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K45" t="n">
-        <v>536.9833659871061</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L45" t="n">
-        <v>1198.071537906394</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="M45" t="n">
-        <v>2041.048618600961</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="N45" t="n">
-        <v>2127.666305572307</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.666305572307</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="P45" t="n">
-        <v>2127.666305572307</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q45" t="n">
         <v>2127.666305572307</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>904.5574589327268</v>
+        <v>401.5825695305779</v>
       </c>
       <c r="C46" t="n">
-        <v>733.4640864944433</v>
+        <v>401.5825695305779</v>
       </c>
       <c r="D46" t="n">
-        <v>573.9694418173533</v>
+        <v>242.0879248534879</v>
       </c>
       <c r="E46" t="n">
-        <v>413.0586266856727</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F46" t="n">
-        <v>248.427500796264</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G46" t="n">
         <v>81.1771097218074</v>
@@ -7830,28 +7830,28 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R46" t="n">
-        <v>1610.576006342658</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S46" t="n">
-        <v>1610.576006342658</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T46" t="n">
-        <v>1610.576006342658</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="U46" t="n">
-        <v>1610.576006342658</v>
+        <v>1056.113372444092</v>
       </c>
       <c r="V46" t="n">
-        <v>1610.576006342658</v>
+        <v>782.2276273836137</v>
       </c>
       <c r="W46" t="n">
-        <v>1331.506341851532</v>
+        <v>626.3182681418132</v>
       </c>
       <c r="X46" t="n">
-        <v>1316.992863938006</v>
+        <v>626.3182681418132</v>
       </c>
       <c r="Y46" t="n">
-        <v>1092.257165326771</v>
+        <v>401.5825695305779</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
@@ -7990,13 +7990,13 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>62.07087134908654</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>564.2543476875381</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,7 +8218,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>333.2159935059486</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
@@ -8233,13 +8233,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>287.6689177404308</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>555.7634839606675</v>
       </c>
       <c r="M6" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8318,7 +8318,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>292.2496847286102</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>536.9682567677057</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8540,22 +8540,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507827</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8704,13 +8704,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>511.4581578783156</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.9230099351687</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8771,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>141.7522481051737</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.21279686932478</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8944,10 +8944,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>328.6352265177691</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>384.4175102257753</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>293.7680303325975</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
@@ -9263,7 +9263,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>293.7680303325975</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>610.0079012849245</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>741.5205988334646</v>
+        <v>544.4254386968355</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,13 +9953,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>164.6818431230231</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
@@ -9968,7 +9968,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -9977,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>348.1042600436691</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
@@ -10439,16 +10439,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>153.3437978591911</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10673,22 +10673,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.174398074769</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>177.1904702224191</v>
+        <v>266.54231935717</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10919,7 +10919,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.21279686932478</v>
+        <v>276.4368863887011</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11080,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>888.8639191474061</v>
+        <v>321.4842297650525</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
@@ -11156,7 +11156,7 @@
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>280.2152552851256</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.9230099351687</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>140.68600649612</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>280.6339671411982</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>13.31276990492533</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>82.68617307340611</v>
+        <v>119.0610955137991</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>246.128499530723</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>26.14408031811286</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23548,7 +23548,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23670,10 +23670,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>82.68617307340611</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>88.57144222862047</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.12847945292467</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>66.67030145086765</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>124.0757159946015</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>62.56142803888764</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.7251922248153</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>55.35263051300467</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>32.28731256679784</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>93.42449318090658</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>55.35263051300467</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>37.84312462897412</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25095,7 +25095,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>55.90481413758803</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25371,10 +25371,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>56.01419322081091</v>
+        <v>12.55274815319899</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>45.84716204233354</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>49.69875501207643</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>31.83011893222968</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>103.981422501071</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>94.02713187127318</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>115.8329456361839</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>64.95122043821627</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>120.8849540142617</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>26.14408031811303</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>121.9287021968318</v>
       </c>
       <c r="X46" t="n">
-        <v>221.5920803845231</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>626147.7274711734</v>
+        <v>626147.7274711733</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>626147.7274711734</v>
+        <v>626147.7274711735</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680919.1811376347</v>
+        <v>680919.1811376349</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680919.1811376347</v>
+        <v>680919.181137635</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680919.1811376348</v>
+        <v>680919.1811376349</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680919.1811376349</v>
+        <v>680919.1811376347</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>390917.7432778967</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.743277897</v>
+        <v>390917.7432778968</v>
       </c>
       <c r="D2" t="n">
-        <v>390917.743277897</v>
+        <v>390917.7432778968</v>
       </c>
       <c r="E2" t="n">
-        <v>319622.0763322538</v>
+        <v>319622.0763322535</v>
       </c>
       <c r="F2" t="n">
-        <v>319622.0763322537</v>
+        <v>319622.0763322536</v>
       </c>
       <c r="G2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="H2" t="n">
-        <v>347578.4010421127</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="I2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="J2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="K2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="L2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="M2" t="n">
         <v>347578.4010421127</v>
       </c>
       <c r="N2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421126</v>
       </c>
       <c r="O2" t="n">
-        <v>319622.0763322536</v>
+        <v>319622.0763322535</v>
       </c>
       <c r="P2" t="n">
-        <v>319622.0763322537</v>
+        <v>319622.0763322535</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14182.06541381101</v>
+        <v>-14182.06541381102</v>
       </c>
       <c r="C6" t="n">
-        <v>54407.07104629857</v>
+        <v>54407.07104629846</v>
       </c>
       <c r="D6" t="n">
-        <v>213567.9417977651</v>
+        <v>213567.9417977648</v>
       </c>
       <c r="E6" t="n">
-        <v>243721.9070575349</v>
+        <v>243424.8417785945</v>
       </c>
       <c r="F6" t="n">
-        <v>243721.9070575348</v>
+        <v>243424.8417785945</v>
       </c>
       <c r="G6" t="n">
-        <v>219906.932517266</v>
+        <v>219726.3519246169</v>
       </c>
       <c r="H6" t="n">
-        <v>261247.8170601755</v>
+        <v>261067.2364675265</v>
       </c>
       <c r="I6" t="n">
-        <v>261247.8170601755</v>
+        <v>261067.2364675264</v>
       </c>
       <c r="J6" t="n">
-        <v>124653.0162542806</v>
+        <v>124472.4356616313</v>
       </c>
       <c r="K6" t="n">
-        <v>134455.3943531417</v>
+        <v>134274.8137604924</v>
       </c>
       <c r="L6" t="n">
-        <v>261247.8170601758</v>
+        <v>261067.2364675264</v>
       </c>
       <c r="M6" t="n">
-        <v>261247.8170601755</v>
+        <v>261067.2364675263</v>
       </c>
       <c r="N6" t="n">
-        <v>261247.8170601756</v>
+        <v>261067.2364675263</v>
       </c>
       <c r="O6" t="n">
-        <v>243721.9070575348</v>
+        <v>243424.8417785945</v>
       </c>
       <c r="P6" t="n">
-        <v>243721.9070575348</v>
+        <v>243424.8417785944</v>
       </c>
     </row>
   </sheetData>
@@ -27038,7 +27038,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>492.650301152567</v>
+        <v>492.6503011525671</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>92.66952791949444</v>
-      </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>18.19522188379977</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.0373124364131</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>195.3911441198338</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>237.6193444862571</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>150.6395583701897</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>29.18917605157023</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>19.43173777276945</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>81.58801207662759</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>8.893130557884234</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
@@ -34710,13 +34710,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>500.9700927793177</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>10.70163254908653</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>506.6900639491207</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>244.0796038327315</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
@@ -34953,13 +34953,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>194.0195544595466</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>499.6489601498184</v>
       </c>
       <c r="M6" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>203.1132950553931</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>443.6780323106602</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570327</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35424,13 +35424,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>418.2683822525325</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.88920553601663</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>87.49261310237</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>24.88920553601683</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35664,10 +35664,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>234.9858632368849</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
@@ -35983,7 +35983,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>555.7482662821208</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>688.3272054397147</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>108.567319312174</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
@@ -36688,7 +36688,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>100.1504044654411</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>121.3646874378037</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>24.88920553601683</v>
+        <v>203.1132950553931</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37800,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>831.2996354089887</v>
+        <v>263.9199460266351</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38025,7 +38025,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209636</v>
+        <v>186.9250308280801</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>24.88920553601663</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>87.49261310237</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
